--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2327400.50833464</v>
+        <v>2325143.486425557</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>36.31606325004106</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>17.45409840511795</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>349.7731365986605</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>98.0920354687541</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>61.75622389394801</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>249.4237682275164</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938797</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,13 +1582,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>125.314687234326</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>35.01474696300783</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.47654389282599</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968136</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.474660549155</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>114.471388938969</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>120.73899958301</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>133.2205257453328</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.1797012004971</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>210.3487998386249</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>13.8907283799714</v>
       </c>
       <c r="V28" t="n">
-        <v>25.82615181077492</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>57.02146927219719</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3007,13 +3007,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>164.1383718421534</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.7240588165652</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>115.9112437681534</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,10 +3244,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.775724893532</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102225</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.559217729807</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581638</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345259</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706229</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164191</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877639</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>16.23606563957978</v>
       </c>
       <c r="W37" t="n">
-        <v>98.84568053019962</v>
+        <v>285.4667430481856</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006318</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636895</v>
+        <v>217.5283980636894</v>
       </c>
     </row>
     <row r="38">
@@ -3512,16 +3512,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996204</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,22 +3898,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433931</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124552</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>508.5896820939362</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>90.6258739921231</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>400.4487670819043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>825.2129885066831</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>825.2129885066831</v>
+        <v>905.1298747452308</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>898.1843739960274</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>480.2205658942142</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>153.0258459302171</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>665.7489600711332</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>411.0644718652463</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>411.0644718652463</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0644718652463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,22 +5039,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C13" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.310474345171</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.625986139284</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W13" t="n">
-        <v>872.2088161023238</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X13" t="n">
-        <v>644.2192652043065</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y13" t="n">
-        <v>423.4266860607763</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,46 +5276,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2368.748013620957</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3348.500285847604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,40 +5355,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.658977898817</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.241807861856</v>
+        <v>725.9916293201818</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.252256963839</v>
+        <v>498.0020784221644</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4596778203085</v>
+        <v>277.2094992786343</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2497.450077968866</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
         <v>3547.201365906985</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.0379765536128</v>
+        <v>211.1920047000662</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1017936257059</v>
+        <v>211.1920047000662</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1017936257059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>211.1887000433128</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>211.1887000433128</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208131</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838525</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="X19" t="n">
-        <v>709.6864413838525</v>
+        <v>613.6330486738359</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.6864413838525</v>
+        <v>392.8404695303058</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2274.668463554308</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142067</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282341</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.8112129900687</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>612.8750300621618</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>462.7583906498261</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>314.845297067433</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.241807861856</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.252256963839</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.4596778203085</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5996,22 +5996,22 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,10 +6066,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6078,28 +6078,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.3002584566048</v>
+        <v>578.4172407837247</v>
       </c>
       <c r="C25" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1911.71750529612</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1720.031621122946</v>
       </c>
       <c r="T25" t="n">
-        <v>1552.184046741</v>
+        <v>1498.265005692473</v>
       </c>
       <c r="U25" t="n">
-        <v>1552.184046741</v>
+        <v>1498.265005692473</v>
       </c>
       <c r="V25" t="n">
-        <v>1297.499558535113</v>
+        <v>1498.265005692473</v>
       </c>
       <c r="W25" t="n">
-        <v>1008.082388498152</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X25" t="n">
-        <v>780.0928376001349</v>
+        <v>980.8582847574945</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.3002584566048</v>
+        <v>760.0657056139644</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.2066409118285</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6412,22 +6412,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.724257814701</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V28" t="n">
-        <v>1359.637235783616</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W28" t="n">
-        <v>1359.637235783616</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X28" t="n">
-        <v>1131.647684885598</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>910.8551057420682</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.447785386687</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216516</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>300.0484256555949</v>
+        <v>708.7441371531725</v>
       </c>
       <c r="C31" t="n">
-        <v>300.0484256555949</v>
+        <v>539.8079542252656</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208125</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W31" t="n">
-        <v>709.686441383852</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858346</v>
+        <v>708.7441371531725</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858346</v>
+        <v>708.7441371531725</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667298</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.5270475124403</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C34" t="n">
-        <v>364.5908645845334</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
-        <v>214.4742251721977</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>214.4742251721977</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6883,25 +6883,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1749.430944449955</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1527.664329019481</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1238.561462145125</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384227</v>
+        <v>983.8769739392382</v>
       </c>
       <c r="W34" t="n">
-        <v>1163.957642384227</v>
+        <v>694.4598039022776</v>
       </c>
       <c r="X34" t="n">
-        <v>935.9680914862101</v>
+        <v>466.4702530042603</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.17551234268</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6947,13 +6947,13 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.935374073907</v>
+        <v>244.6107493269872</v>
       </c>
       <c r="C37" t="n">
-        <v>849.0661156797431</v>
+        <v>244.6107493269872</v>
       </c>
       <c r="D37" t="n">
-        <v>700.0164008011501</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>553.1702317524997</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3472087883321</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>240.7112966967939</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7096,16 +7096,16 @@
         <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152489</v>
+        <v>346.762235315249</v>
       </c>
       <c r="L37" t="n">
-        <v>664.367726499266</v>
+        <v>664.3677264992665</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834336</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275722</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
         <v>1652.399825931657</v>
@@ -7117,28 +7117,28 @@
         <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988874</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988874</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1744.009317092143</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1744.009317092143</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1744.009317092143</v>
+        <v>1160.190816100764</v>
       </c>
       <c r="W37" t="n">
-        <v>1644.165195344466</v>
+        <v>871.8405705975458</v>
       </c>
       <c r="X37" t="n">
-        <v>1417.242568980192</v>
+        <v>644.9179442332713</v>
       </c>
       <c r="Y37" t="n">
-        <v>1197.516914370404</v>
+        <v>425.192289623484</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,22 +7172,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,25 +7251,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7397,40 +7397,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.36161137741</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,31 +7588,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,22 +7646,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,25 +7725,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>79.70465870845339</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,19 +8936,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="O14" t="n">
-        <v>226.768859619311</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>410.4190035206668</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>73.34731650832828</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>229.1155640189945</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>67.53663776704292</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>103.7862464855143</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>272.8828616575882</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>351.4175304294035</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>60.66917680434136</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>341.5962138876753</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>85.51392558917598</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>160.8971509712869</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>251.5082513735832</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.35543628911131</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>34.14081246905733</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>51.55441932005921</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>24.68204843992127</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>92.4891296437043</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>44.75245146955024</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>9.200149437544281</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>272.3211098256415</v>
       </c>
       <c r="V28" t="n">
-        <v>226.3114915130531</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>91.59400374601516</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>61.57128354688376</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>27.69698920636604</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>73.8577815632885</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143275</v>
+        <v>95.29616512143267</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164199</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430366</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172075</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354227</v>
+        <v>234.8453223958428</v>
       </c>
       <c r="W37" t="n">
-        <v>186.621062517986</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-6.323830348264892e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831992.717996389</v>
+        <v>831992.7179963893</v>
       </c>
     </row>
     <row r="14">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516047</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="F2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="G2" t="n">
         <v>575768.5909861255</v>
       </c>
-      <c r="F2" t="n">
-        <v>575768.5909861255</v>
-      </c>
-      <c r="G2" t="n">
-        <v>575768.5909861256</v>
-      </c>
       <c r="H2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861254</v>
       </c>
       <c r="I2" t="n">
-        <v>575768.5909861254</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="J2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.590986126</v>
       </c>
       <c r="L2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="M2" t="n">
-        <v>576206.7572829146</v>
+        <v>576206.7572829144</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="O2" t="n">
         <v>595255.2831516053</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.319069669</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.1050641498</v>
+        <v>36735.10506414971</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811451</v>
+        <v>18496.05294811453</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740898</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834771</v>
+        <v>-260920.360983477</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310676</v>
+        <v>329047.5182310672</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310675</v>
+        <v>329047.5182310673</v>
       </c>
       <c r="E6" t="n">
-        <v>-266140.8335801848</v>
+        <v>-266208.0290704105</v>
       </c>
       <c r="F6" t="n">
-        <v>461236.5804132219</v>
+        <v>461169.3849229962</v>
       </c>
       <c r="G6" t="n">
-        <v>461236.580413222</v>
+        <v>461169.3849229962</v>
       </c>
       <c r="H6" t="n">
-        <v>461236.5804132219</v>
+        <v>461169.384922996</v>
       </c>
       <c r="I6" t="n">
-        <v>461236.5804132218</v>
+        <v>461169.3849229964</v>
       </c>
       <c r="J6" t="n">
-        <v>284813.3612206291</v>
+        <v>284746.1657304032</v>
       </c>
       <c r="K6" t="n">
-        <v>461236.580413222</v>
+        <v>461169.3849229966</v>
       </c>
       <c r="L6" t="n">
-        <v>461236.5804132221</v>
+        <v>461169.3849229963</v>
       </c>
       <c r="M6" t="n">
-        <v>330751.0686855764</v>
+        <v>330685.3841136151</v>
       </c>
       <c r="N6" t="n">
-        <v>424581.8537759444</v>
+        <v>424581.8537759446</v>
       </c>
       <c r="O6" t="n">
         <v>461316.9588400942</v>
       </c>
       <c r="P6" t="n">
-        <v>461316.9588400941</v>
+        <v>461316.9588400942</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018725</v>
+        <v>45.91888133018714</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>287.6067095143161</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.9798642414512</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>57.10290914305097</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>53.83928077610715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>224.5256503480297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>164.3604017932786</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082698</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29998,13 +29998,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405333</v>
+        <v>1.05625528840542</v>
       </c>
     </row>
     <row r="38">
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>587.7576595966725</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35656,19 +35656,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>769.2895937392452</v>
       </c>
       <c r="O14" t="n">
-        <v>734.8218605075301</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306621</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789364</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>949.3401193508936</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>625.6491519212395</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>684.7056784113264</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>712.6348250476647</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>559.3763608778464</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>616.5875007398367</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>610.0741482129887</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>903.719365842315</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37090,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37315,16 +37315,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>459.4311630237132</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147156</v>
+        <v>46.63467190147165</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327249</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586034</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
         <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559454</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110451</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335158</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.450493826299</v>
+        <v>79.45049382629908</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>880.517329717902</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>624.4350414194028</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
